--- a/users/management/commands/symptoms_data.xlsx
+++ b/users/management/commands/symptoms_data.xlsx
@@ -8,113 +8,329 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Smn-20/Downloads/who/erp_backend/users/management/commands/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F2A3F5B-7F47-9944-B66C-9EF79DEA0A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A3D8C9-094B-5E4C-88D1-3769299E9557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{5D8CDFA2-CACD-354D-8BE0-6868BA5A0776}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11040" xr2:uid="{86EC5361-F8EC-42AF-A15D-150FEE277481}"/>
   </bookViews>
   <sheets>
     <sheet name="symptoms_data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
-  <si>
-    <t>Persistent symptoms, severe cases, or suspicion of serious underlying conditions.</t>
-  </si>
-  <si>
-    <t>Referral for specialized treatment, adjusting medications as needed.</t>
-  </si>
-  <si>
-    <t>11,14</t>
-  </si>
-  <si>
-    <t>Floaters in Vision</t>
-  </si>
-  <si>
-    <t>11,6</t>
-  </si>
-  <si>
-    <t>Photophobia (Sensitivity to Light)</t>
-  </si>
-  <si>
-    <t>Referral for severe cases, adjusting medications as needed.</t>
-  </si>
-  <si>
-    <t>Swollen Eyelids</t>
-  </si>
-  <si>
-    <t>Severe cases, persistent symptoms, or complications.</t>
-  </si>
-  <si>
-    <t>Regular follow-up, adjusting treatment as needed.</t>
-  </si>
-  <si>
-    <t>Discharge from Eye</t>
-  </si>
-  <si>
-    <t>6,11,10,13</t>
-  </si>
-  <si>
-    <t>Eye Pain</t>
-  </si>
-  <si>
-    <t>Severe cases, significant vision loss, or complications.</t>
-  </si>
-  <si>
-    <t>2,3,14,15</t>
-  </si>
-  <si>
-    <t>Blurred Vision</t>
-  </si>
-  <si>
-    <t>Adjust medications based on initial response, refer if necessary.</t>
-  </si>
-  <si>
-    <t>1,11,10,6</t>
-  </si>
-  <si>
-    <t>Red Eye</t>
-  </si>
-  <si>
-    <t>referral_criteria</t>
-  </si>
-  <si>
-    <t>further_management</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+  <si>
+    <t>Itchy</t>
+  </si>
+  <si>
+    <t>Teary eyes</t>
+  </si>
+  <si>
+    <t>Brown discoloration</t>
+  </si>
+  <si>
+    <t>Matting of lashes</t>
+  </si>
+  <si>
+    <t>Mucopurulent discharge</t>
+  </si>
+  <si>
+    <t>Swollen eyelids</t>
+  </si>
+  <si>
+    <t>Burning sensation</t>
+  </si>
+  <si>
+    <t>Watery discharge</t>
+  </si>
+  <si>
+    <t>Associated with upper respiratory infections</t>
+  </si>
+  <si>
+    <t>Blurred vision</t>
+  </si>
+  <si>
+    <t>Eyestrain</t>
+  </si>
+  <si>
+    <t>Headaches</t>
+  </si>
+  <si>
+    <t>Poor distance vision</t>
+  </si>
+  <si>
+    <t>Difficulty seeing near objects</t>
+  </si>
+  <si>
+    <t>Fatigue</t>
+  </si>
+  <si>
+    <t>Reduced vision</t>
+  </si>
+  <si>
+    <t>Whitish opacity in the lens</t>
+  </si>
+  <si>
+    <t>Growth on nasal or temporal conjunctiva</t>
+  </si>
+  <si>
+    <t>May cause visual problems or become inflamed</t>
+  </si>
+  <si>
+    <t>Does not invade the cornea</t>
+  </si>
+  <si>
+    <t>Occasionally becomes inflamed</t>
+  </si>
+  <si>
+    <t>Painful red eye</t>
+  </si>
+  <si>
+    <t>Blurring of vision</t>
+  </si>
+  <si>
+    <t>Photophobia</t>
+  </si>
+  <si>
+    <t>Disturbance of vision</t>
+  </si>
+  <si>
+    <t>Pain</t>
+  </si>
+  <si>
+    <t>Tearing</t>
+  </si>
+  <si>
+    <t>Foreign body sensation</t>
+  </si>
+  <si>
+    <t>Visual loss</t>
+  </si>
+  <si>
+    <t>Hyphema</t>
+  </si>
+  <si>
+    <t>Fractures</t>
+  </si>
+  <si>
+    <t>Eye pain</t>
+  </si>
+  <si>
+    <t>Inability to open the eye</t>
+  </si>
+  <si>
+    <t>Excessive tearing</t>
+  </si>
+  <si>
+    <t>Raised intraocular pressure</t>
+  </si>
+  <si>
+    <t>Acute redness</t>
+  </si>
+  <si>
+    <t>Severe intraocular pressure</t>
+  </si>
+  <si>
+    <t>Seeing floaters</t>
+  </si>
+  <si>
+    <t>Fever</t>
+  </si>
+  <si>
+    <t>Sinusitis</t>
+  </si>
+  <si>
+    <t>Facial trauma</t>
+  </si>
+  <si>
+    <t>Tender periorbital oedema</t>
+  </si>
+  <si>
+    <t>Decreased vision</t>
+  </si>
+  <si>
+    <t>Proptosis</t>
+  </si>
+  <si>
+    <t>Profound vision loss</t>
+  </si>
+  <si>
+    <t>Brick red redness</t>
+  </si>
+  <si>
+    <t>Retinal hemorrhages</t>
+  </si>
+  <si>
+    <t>Macula edema</t>
+  </si>
+  <si>
+    <t>Abnormal retinal vascular development</t>
+  </si>
+  <si>
+    <t>Gradually enlarging painless nodule</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Painful swelling on the eyelid</t>
+  </si>
+  <si>
+    <t>Leukocoria</t>
+  </si>
+  <si>
+    <t>Strabismus</t>
+  </si>
+  <si>
+    <t>Lid swelling</t>
+  </si>
+  <si>
+    <t>9,11,13</t>
+  </si>
+  <si>
+    <t>2,10</t>
+  </si>
+  <si>
+    <t>3,14</t>
+  </si>
+  <si>
+    <t>6,11</t>
+  </si>
+  <si>
+    <t>7,8,9,10,11</t>
+  </si>
+  <si>
+    <t>8,10,14</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
   <si>
     <t>conditions</t>
-  </si>
-  <si>
-    <t>name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -127,16 +343,202 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -144,38 +546,216 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -185,16 +765,22 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color auto="1"/>
         <name val="Aptos Narrow"/>
         <family val="2"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -204,11 +790,41 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -225,13 +841,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FAF27491-F0CB-2745-B817-D99DB5396DA0}" name="Table24" displayName="Table24" ref="A1:D8" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D8" xr:uid="{972EBD1D-8E0A-40A6-A806-A0F698D3B572}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E9F4C6AE-9234-F743-BD49-C97F616BA886}" name="name" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{87517B0A-D7A8-2646-99FA-E30ECF1A047B}" name="conditions" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{5FC54A38-7DB1-B04C-907E-FA8A8DA58B46}" name="further_management" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{CD3AB5D9-6B66-E948-A5DD-312740BBA0AD}" name="referral_criteria" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{299AB05E-A8EB-41A4-937C-BE7EF7FE7A83}" name="Table1" displayName="Table1" ref="A1:B56" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:B56" xr:uid="{299AB05E-A8EB-41A4-937C-BE7EF7FE7A83}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{6002F2DF-A7E4-4988-A982-D24F9ED6B05E}" name="name" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{1CF4DBC5-8D2C-420B-AE11-F88BA3840CBD}" name="conditions" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -553,131 +1167,466 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7ABA42F-BE5C-DC45-84DA-F0B5EF1DF428}">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD79756B-562D-4CAE-925F-BBD02E3DF2D4}">
+  <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" customWidth="1"/>
+    <col min="1" max="1" width="46.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>0</v>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
